--- a/biology/Botanique/Giovanni_Gussone/Giovanni_Gussone.xlsx
+++ b/biology/Botanique/Giovanni_Gussone/Giovanni_Gussone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Gussone (né le 8 février 1787 à Villamaina et mort le 14 janvier 1866 à Naples) est un botaniste italien du XIXe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Gussone étudie la médecine à l’université de Naples où il est diplômé en 1811. Il décide d’abandonner la carrière de médecin pour se consacrer entièrement à la botanique, devenant un proche collaborateur de Michele Tenore, alors directeur du jardin botanique de Naples.
 En 1817, il obtient du duc de Calabre l’autorisation de fonder à Palerme le jardin expérimental et d’acclimatation de Boccadifalco. Lorsque le duc, devient en 1825, roi de Naples sous le nom de François Ier, Gussone est nommé botaniste de cour et part s’installer à Naples, où il vit jusqu’en 1860. Il réalise plusieurs voyages scientifiques, tant en Italie qu’à l’étranger.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Florae siculae prodromus (1827-1828)
 Flora sicula (1829)
